--- a/nutrangvekhocu1.xlsx
+++ b/nutrangvekhocu1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\duan_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6687E9B-F9C7-41BA-B0DE-BDC0F1D0E5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8C5F40-CD50-452E-8EDB-B7F9D7185331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1821C475-FEFB-4151-85DE-EBF08FADC174}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="111">
   <si>
     <t>Trạng thái</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>84,921,000</t>
+  </si>
+  <si>
+    <t>NS: Mặt dây (350/E/PNJ)(336E22-1)</t>
+  </si>
+  <si>
+    <t>NS: Mặt dây (360/E/2G/3EX)(425N19-63)</t>
+  </si>
+  <si>
+    <t>NS: NHẪN NỮ(540/E/IF/2G/3EX)(762642)</t>
   </si>
 </sst>
 </file>
@@ -864,15 +873,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091A8A9D-E3E3-46C9-8AAA-E1C025E39B60}">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,70 +931,73 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1034,71 +1046,74 @@
       <c r="P2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>50</v>
+      <c r="Q2" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="U2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="W2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="Z2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>43</v>
+      <c r="AB2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="AE2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1147,71 +1162,74 @@
       <c r="P3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>50</v>
+      <c r="Q3" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="U3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="W3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="Z3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>43</v>
+      <c r="AB3" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="AC3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="AE3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1260,71 +1278,74 @@
       <c r="P4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>50</v>
+      <c r="Q4" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="U4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="Z4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>43</v>
+      <c r="AB4" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="AC4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="AE4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -1373,41 +1394,41 @@
       <c r="P5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>50</v>
+      <c r="Q5" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="U5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="W5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="Y5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Y5" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="Z5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AA5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>43</v>
+      <c r="AB5" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>43</v>
@@ -1419,25 +1440,28 @@
         <v>43</v>
       </c>
       <c r="AF5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AG5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AH5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL5" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1486,71 +1510,74 @@
       <c r="P6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>50</v>
+      <c r="Q6" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="U6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="W6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="Z6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AD6" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="AE6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AH6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1570,46 +1597,47 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="10"/>
+      <c r="S7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="12" t="s">
+      <c r="U7" s="10"/>
+      <c r="V7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="Y7" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="Z7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AA7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB7" s="10"/>
+      <c r="AB7" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
-      <c r="AI7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="14"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
